--- a/biology/Botanique/Allagoptera_caudescens/Allagoptera_caudescens.xlsx
+++ b/biology/Botanique/Allagoptera_caudescens/Allagoptera_caudescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allagoptera caudescens est une des espèces du genre Allagoptera de la famille des arécacées (les palmiers). Ce palmier est endémique du Brésil. Précédemment dans le genre Polyandrococos  l'espèce P.caudescens est devenu synonyme de Allagoptera caudescens[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allagoptera caudescens est une des espèces du genre Allagoptera de la famille des arécacées (les palmiers). Ce palmier est endémique du Brésil. Précédemment dans le genre Polyandrococos  l'espèce P.caudescens est devenu synonyme de Allagoptera caudescens.
 </t>
         </is>
       </c>
